--- a/AutoAdjustExcelMergedCellsHeight/test.xlsx
+++ b/AutoAdjustExcelMergedCellsHeight/test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Github\#Learning\VSTOLearning\AutoAdjustExcelMergedCellsHeight\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Github\VSTOLearning\AutoAdjustExcelMergedCellsHeight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2331AAC7-84EF-4393-86A6-80C707BC4B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F1D854-69E6-4F5A-AA32-5DDE7ED9D264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,17 +16,28 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Evaluation Warning" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>哈哈哈</t>
   </si>
@@ -69,6 +80,10 @@
   <si>
     <t>多格式文档处理解决方案:Excel/Word/PDF/PPT | Java · .NET...
 Spire.Doc for .NET 专门对 Word 文档进行操作的 .NET 类库。此控件的主要功能在于帮助开发人员轻松快捷高效地创建、编辑、转换和打印 Microsoft Word 文档。无需安装 Microsoft Word... Spi</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>物资名称：</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -77,12 +92,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +167,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="华文中宋"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -174,14 +196,14 @@
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -208,6 +230,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -496,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E4:I17"/>
+  <dimension ref="E4:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -606,16 +631,23 @@
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
     </row>
-    <row r="17" spans="9:9" ht="114" x14ac:dyDescent="0.2">
+    <row r="17" spans="5:9" ht="114" x14ac:dyDescent="0.2">
       <c r="I17" s="1" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="18" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E18" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E11:F14"/>
+    <mergeCell ref="E18:F18"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AutoAdjustExcelMergedCellsHeight/test.xlsx
+++ b/AutoAdjustExcelMergedCellsHeight/test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Github\VSTOLearning\AutoAdjustExcelMergedCellsHeight\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Github\#Learning\VSTOLearning\AutoAdjustExcelMergedCellsHeight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F1D854-69E6-4F5A-AA32-5DDE7ED9D264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA5EAA4-DEE9-4F87-B382-B51BC32AAAFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,17 +21,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -92,10 +81,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -196,42 +185,43 @@
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="7" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -521,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E4:I18"/>
+  <dimension ref="D3:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -534,113 +524,313 @@
     <col min="9" max="9" width="35.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E4" t="s">
+    <row r="3" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G4">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3">
         <v>11</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <v>14.25</v>
       </c>
-    </row>
-    <row r="5" spans="5:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="E5" s="2" t="s">
+      <c r="I4" s="3"/>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="4:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5">
+      <c r="F5" s="4"/>
+      <c r="G5" s="3">
         <v>14</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="5:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="E6" s="3" t="s">
+      <c r="I5" s="3"/>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="4:10" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6">
+      <c r="F6" s="5"/>
+      <c r="G6" s="3">
         <v>18</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <v>23.25</v>
       </c>
-    </row>
-    <row r="7" spans="5:9" ht="30" x14ac:dyDescent="0.4">
-      <c r="E7" s="4" t="s">
+      <c r="I6" s="3"/>
+      <c r="J6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="4:10" ht="30" x14ac:dyDescent="0.4">
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7">
+      <c r="F7" s="6"/>
+      <c r="G7" s="3">
         <v>24</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="5:9" ht="35.25" x14ac:dyDescent="0.5">
-      <c r="E8" s="11" t="s">
+      <c r="I7" s="3"/>
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="4:10" ht="35.25" x14ac:dyDescent="0.5">
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8">
+      <c r="F8" s="7"/>
+      <c r="G8" s="3">
         <v>28</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="3">
         <v>70.5</v>
       </c>
-    </row>
-    <row r="9" spans="5:9" ht="30" x14ac:dyDescent="0.4">
-      <c r="E9" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="10"/>
-      <c r="G9">
+      <c r="I8" s="3"/>
+      <c r="J8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="4:10" ht="30" x14ac:dyDescent="0.4">
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="3">
         <v>24</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="3">
         <v>60</v>
       </c>
-    </row>
-    <row r="10" spans="5:9" ht="60" x14ac:dyDescent="0.4">
-      <c r="I10" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E11" s="12" t="s">
+      <c r="I9" s="3"/>
+      <c r="J9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="4:10" ht="60" x14ac:dyDescent="0.4">
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="9"/>
-      <c r="I11" s="8"/>
-    </row>
-    <row r="12" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="17" spans="5:9" ht="114" x14ac:dyDescent="0.2">
-      <c r="I17" s="1" t="s">
+      <c r="F11" s="10"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10" ht="114" x14ac:dyDescent="0.2">
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E18" s="13" t="s">
+      <c r="J17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="13"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1</v>
+      </c>
+      <c r="I19" s="3">
+        <v>1</v>
+      </c>
+      <c r="J19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -664,12 +854,12 @@
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -679,7 +869,7 @@
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -689,7 +879,7 @@
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -699,7 +889,7 @@
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
     </row>
